--- a/resultado_query_por_anio_20250108_163957.xlsx
+++ b/resultado_query_por_anio_20250108_163957.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/zeron/Documents/proyectos/dguiaf/union_forms/pythonProject/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{386AB547-BB60-0E4A-9CD8-67F0D09324F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C16EAB-B7E2-384F-B3F1-1085C0A3A39E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2638" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2639" uniqueCount="90">
   <si>
     <t>Año</t>
   </si>
@@ -369,6 +369,9 @@
   <si>
     <t>ESTE EJEMPLO ESTA EN LA HOJA DEL 2019 Y CORRESPONDE AL BENEFICIARIO 32848 QUE SE ENCUENTRA RESALTADO EN AMARILLO</t>
   </si>
+  <si>
+    <t>Version 2.6.0</t>
+  </si>
 </sst>
 </file>
 
@@ -376,7 +379,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
-    <numFmt numFmtId="166" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -433,7 +436,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="11">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -545,11 +548,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -557,9 +586,20 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -571,6 +611,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -585,19 +628,11 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4710,655 +4745,663 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K43"/>
+  <dimension ref="A1:K56"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+      <selection activeCell="Z8" sqref="Z8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="6.6640625" style="17" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.1640625" style="17" customWidth="1"/>
-    <col min="3" max="3" width="13.83203125" style="17" customWidth="1"/>
-    <col min="4" max="5" width="5.1640625" style="17" customWidth="1"/>
-    <col min="6" max="9" width="8.83203125" style="17"/>
-    <col min="10" max="10" width="4.83203125" style="17" customWidth="1"/>
-    <col min="11" max="16384" width="8.83203125" style="17"/>
+    <col min="1" max="1" width="6.6640625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.1640625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="13.83203125" style="8" customWidth="1"/>
+    <col min="4" max="5" width="5.1640625" style="8" customWidth="1"/>
+    <col min="6" max="9" width="8.83203125" style="8"/>
+    <col min="10" max="10" width="4.83203125" style="8" customWidth="1"/>
+    <col min="11" max="16384" width="8.83203125" style="8"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="G1" s="16" t="s">
+      <c r="F1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="7" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="18">
+      <c r="C2" s="9">
         <v>2</v>
       </c>
-      <c r="F2" s="18" t="s">
+      <c r="F2" s="9" t="s">
         <v>73</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="9">
         <v>2</v>
       </c>
-      <c r="H2" s="18">
+      <c r="H2" s="9">
         <v>2</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C3" s="18">
+      <c r="C3" s="9">
         <v>6</v>
       </c>
-      <c r="F3" s="18" t="s">
+      <c r="F3" s="9" t="s">
         <v>74</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="9">
         <v>4</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="9">
         <v>6</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C4" s="18">
+      <c r="C4" s="9">
         <v>52</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="G4" s="18">
+      <c r="G4" s="9">
         <v>51</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="9">
         <v>53</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="9">
         <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C5" s="18">
+      <c r="C5" s="9">
         <v>3</v>
       </c>
-      <c r="F5" s="18" t="s">
+      <c r="F5" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="G5" s="18">
+      <c r="G5" s="9">
         <v>38</v>
       </c>
-      <c r="H5" s="18">
+      <c r="H5" s="9">
         <v>54</v>
       </c>
-      <c r="I5" s="18">
+      <c r="I5" s="9">
         <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="9" t="s">
         <v>75</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="18">
+      <c r="C6" s="9">
         <v>1</v>
       </c>
-      <c r="F6" s="18" t="s">
+      <c r="F6" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="18">
+      <c r="G6" s="9">
         <v>23</v>
       </c>
-      <c r="H6" s="18">
+      <c r="H6" s="9">
         <v>27</v>
       </c>
-      <c r="I6" s="18">
+      <c r="I6" s="9">
         <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="18" t="s">
+      <c r="B7" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="18">
+      <c r="C7" s="9">
         <v>52</v>
       </c>
-      <c r="F7" s="18" t="s">
+      <c r="F7" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="18">
+      <c r="G7" s="9">
         <v>27</v>
       </c>
-      <c r="H7" s="18">
+      <c r="H7" s="9">
         <v>16</v>
       </c>
-      <c r="I7" s="18">
+      <c r="I7" s="9">
         <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="C8" s="18">
+      <c r="C8" s="9">
         <v>1</v>
       </c>
-      <c r="F8" s="18" t="s">
+      <c r="F8" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="G8" s="18">
+      <c r="G8" s="9">
         <v>44</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="9">
         <v>21</v>
       </c>
-      <c r="I8" s="18">
+      <c r="I8" s="9">
         <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="9" t="s">
         <v>76</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="18">
+      <c r="C9" s="9">
         <v>1</v>
       </c>
-      <c r="F9" s="18" t="s">
+      <c r="F9" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="G9" s="18">
+      <c r="G9" s="9">
         <v>17</v>
       </c>
-      <c r="H9" s="18">
+      <c r="H9" s="9">
         <v>14</v>
       </c>
-      <c r="I9" s="18">
+      <c r="I9" s="9">
         <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C10" s="18">
+      <c r="C10" s="9">
         <v>27</v>
       </c>
-      <c r="F10" s="18" t="s">
+      <c r="F10" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="G10" s="18">
+      <c r="G10" s="9">
         <v>24</v>
       </c>
-      <c r="H10" s="18">
+      <c r="H10" s="9">
         <v>18</v>
       </c>
-      <c r="I10" s="18">
+      <c r="I10" s="9">
         <v>21</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A11" s="18" t="s">
+      <c r="A11" s="9" t="s">
         <v>77</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="18">
+      <c r="C11" s="9">
         <v>1</v>
       </c>
-      <c r="F11" s="18" t="s">
+      <c r="F11" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="G11" s="18">
+      <c r="G11" s="9">
         <v>32</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="9">
         <v>26</v>
       </c>
-      <c r="I11" s="18">
+      <c r="I11" s="9">
         <v>27</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A12" s="18" t="s">
+      <c r="A12" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C12" s="18">
+      <c r="C12" s="9">
         <v>34</v>
       </c>
-      <c r="F12" s="18" t="s">
+      <c r="F12" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="G12" s="18">
+      <c r="G12" s="9">
         <v>24</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="9">
         <v>30</v>
       </c>
-      <c r="I12" s="18">
+      <c r="I12" s="9">
         <v>32</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
+      <c r="A13" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C13" s="18">
+      <c r="C13" s="9">
         <v>15</v>
       </c>
-      <c r="F13" s="18" t="s">
+      <c r="F13" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="G13" s="18">
+      <c r="G13" s="9">
         <v>7</v>
       </c>
-      <c r="H13" s="18">
+      <c r="H13" s="9">
         <v>6</v>
       </c>
-      <c r="I13" s="18">
+      <c r="I13" s="9">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
+      <c r="A14" s="9" t="s">
         <v>78</v>
       </c>
-      <c r="B14" s="18" t="s">
+      <c r="B14" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="18">
+      <c r="C14" s="9">
         <v>3</v>
       </c>
-      <c r="F14" s="18" t="s">
+      <c r="F14" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="G14" s="18">
+      <c r="G14" s="9">
         <v>4</v>
       </c>
-      <c r="H14" s="18">
-        <v>0</v>
-      </c>
-      <c r="I14" s="18">
+      <c r="H14" s="9">
+        <v>0</v>
+      </c>
+      <c r="I14" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="18" t="s">
+      <c r="A15" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B15" s="18" t="s">
+      <c r="B15" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C15" s="18">
+      <c r="C15" s="9">
         <v>143</v>
       </c>
-      <c r="F15" s="18" t="s">
+      <c r="F15" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="G15" s="18">
+      <c r="G15" s="9">
         <v>1</v>
       </c>
-      <c r="H15" s="18">
-        <v>0</v>
-      </c>
-      <c r="I15" s="18">
+      <c r="H15" s="9">
+        <v>0</v>
+      </c>
+      <c r="I15" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="A16" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="9">
         <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:11" ht="19" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B17" s="18" t="s">
+      <c r="B17" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C17" s="18">
+      <c r="C17" s="9">
         <v>3</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="8"/>
-      <c r="J17" s="9"/>
+      <c r="F17" s="13"/>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="14"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="9" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="9" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="18">
+      <c r="C18" s="9">
         <v>2</v>
       </c>
-      <c r="D18" s="20"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="16"/>
+      <c r="G18" s="16"/>
+      <c r="H18" s="16"/>
+      <c r="I18" s="16"/>
+      <c r="J18" s="17"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
+      <c r="A19" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="18" t="s">
+      <c r="B19" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C19" s="18">
+      <c r="C19" s="9">
         <v>14</v>
       </c>
-      <c r="D19" s="20"/>
-      <c r="E19" s="10"/>
-      <c r="F19" s="6"/>
-      <c r="G19" s="6"/>
-      <c r="H19" s="6"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="11"/>
+      <c r="D19" s="11"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="16"/>
+      <c r="G19" s="16"/>
+      <c r="H19" s="16"/>
+      <c r="I19" s="16"/>
+      <c r="J19" s="17"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A20" s="18" t="s">
+      <c r="A20" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B20" s="18" t="s">
+      <c r="B20" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="9">
         <v>3</v>
       </c>
-      <c r="D20" s="20"/>
-      <c r="E20" s="10"/>
-      <c r="F20" s="6"/>
-      <c r="G20" s="6"/>
-      <c r="H20" s="6"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="11"/>
+      <c r="D20" s="11"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="16"/>
+      <c r="G20" s="16"/>
+      <c r="H20" s="16"/>
+      <c r="I20" s="16"/>
+      <c r="J20" s="17"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A21" s="18" t="s">
+      <c r="A21" s="9" t="s">
         <v>80</v>
       </c>
-      <c r="B21" s="18" t="s">
+      <c r="B21" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="18">
+      <c r="C21" s="9">
         <v>2</v>
       </c>
-      <c r="D21" s="20"/>
-      <c r="E21" s="10"/>
-      <c r="F21" s="6"/>
-      <c r="G21" s="6"/>
-      <c r="H21" s="6"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="11"/>
+      <c r="D21" s="11"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="16"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="16"/>
+      <c r="J21" s="17"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A22" s="18" t="s">
+      <c r="A22" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B22" s="18" t="s">
+      <c r="B22" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C22" s="18">
+      <c r="C22" s="9">
         <v>18</v>
       </c>
-      <c r="D22" s="20"/>
-      <c r="E22" s="10"/>
-      <c r="F22" s="6"/>
-      <c r="G22" s="6"/>
-      <c r="H22" s="6"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="11"/>
+      <c r="D22" s="11"/>
+      <c r="E22" s="15"/>
+      <c r="F22" s="16"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="16"/>
+      <c r="I22" s="16"/>
+      <c r="J22" s="17"/>
     </row>
     <row r="23" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B23" s="18" t="s">
+      <c r="B23" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C23" s="18">
+      <c r="C23" s="9">
         <v>7</v>
       </c>
-      <c r="D23" s="20"/>
-      <c r="E23" s="12"/>
-      <c r="F23" s="13"/>
-      <c r="G23" s="13"/>
-      <c r="H23" s="13"/>
-      <c r="I23" s="13"/>
-      <c r="J23" s="14"/>
+      <c r="D23" s="11"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="19"/>
+      <c r="G23" s="19"/>
+      <c r="H23" s="19"/>
+      <c r="I23" s="19"/>
+      <c r="J23" s="20"/>
     </row>
     <row r="24" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="B24" s="18" t="s">
+      <c r="B24" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C24" s="18">
+      <c r="C24" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="18" t="s">
+      <c r="A25" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B25" s="18" t="s">
+      <c r="B25" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="18">
+      <c r="C25" s="9">
         <v>26</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="18" t="s">
+      <c r="A26" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="18" t="s">
+      <c r="B26" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C26" s="18">
+      <c r="C26" s="9">
         <v>8</v>
       </c>
-      <c r="E26" s="7" t="s">
+      <c r="E26" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="8"/>
-      <c r="G26" s="8"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="8"/>
-      <c r="J26" s="9"/>
-      <c r="K26" s="19"/>
+      <c r="F26" s="13"/>
+      <c r="G26" s="13"/>
+      <c r="H26" s="13"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="14"/>
+      <c r="K26" s="10"/>
     </row>
     <row r="27" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A27" s="18" t="s">
+      <c r="A27" s="9" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="18" t="s">
+      <c r="B27" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="18">
+      <c r="C27" s="9">
         <v>1</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="6"/>
-      <c r="G27" s="6"/>
-      <c r="H27" s="6"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="19"/>
+      <c r="E27" s="15"/>
+      <c r="F27" s="16"/>
+      <c r="G27" s="16"/>
+      <c r="H27" s="16"/>
+      <c r="I27" s="16"/>
+      <c r="J27" s="17"/>
+      <c r="K27" s="10"/>
     </row>
     <row r="28" spans="1:11" ht="16" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B28" s="18" t="s">
+      <c r="B28" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C28" s="18">
+      <c r="C28" s="9">
         <v>30</v>
       </c>
-      <c r="E28" s="12"/>
-      <c r="F28" s="13"/>
-      <c r="G28" s="13"/>
-      <c r="H28" s="13"/>
-      <c r="I28" s="13"/>
-      <c r="J28" s="14"/>
-      <c r="K28" s="19"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="19"/>
+      <c r="G28" s="19"/>
+      <c r="H28" s="19"/>
+      <c r="I28" s="19"/>
+      <c r="J28" s="20"/>
+      <c r="K28" s="10"/>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A29" s="18" t="s">
+      <c r="A29" s="9" t="s">
         <v>83</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C29" s="18">
+      <c r="C29" s="9">
         <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A30" s="18" t="s">
+      <c r="A30" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="C30" s="18">
+      <c r="C30" s="9">
         <v>6</v>
       </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A31" s="18" t="s">
+      <c r="A31" s="9" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="18" t="s">
+      <c r="B31" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C31" s="18">
+      <c r="C31" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="A32" s="18" t="s">
+      <c r="A32" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="C32" s="18">
+      <c r="C32" s="9">
         <v>3</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A33" s="18" t="s">
+      <c r="A33" s="9" t="s">
         <v>85</v>
       </c>
-      <c r="B33" s="18" t="s">
+      <c r="B33" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C33" s="18">
+      <c r="C33" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A34" s="18" t="s">
+      <c r="A34" s="9" t="s">
         <v>86</v>
       </c>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C34" s="18">
+      <c r="C34" s="9">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:2" ht="16" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="22"/>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="3">
     <mergeCell ref="E17:J23"/>
     <mergeCell ref="E26:J28"/>
+    <mergeCell ref="A56:B56"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
